--- a/Data Files/test_katalon_accounts.xlsx
+++ b/Data Files/test_katalon_accounts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>oncheonche</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -381,44 +390,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
